--- a/Lab02/homework/iTunes.xlsx
+++ b/Lab02/homework/iTunes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>Artist</t>
   </si>
@@ -23,232 +23,535 @@
     <t>Song's name</t>
   </si>
   <si>
-    <t>Christina Perri</t>
-  </si>
-  <si>
-    <t>A Thousand Years</t>
-  </si>
-  <si>
-    <t>Zac Efron &amp; Zendaya</t>
-  </si>
-  <si>
-    <t>Rewrite the Stars</t>
-  </si>
-  <si>
-    <t>The Lumineers</t>
-  </si>
-  <si>
-    <t>Scotland</t>
-  </si>
-  <si>
-    <t>Bebe Rexha</t>
-  </si>
-  <si>
-    <t>I'm a Mess</t>
+    <t>Lauren Daigle</t>
+  </si>
+  <si>
+    <t>You Say</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>In My Feelings</t>
+  </si>
+  <si>
+    <t>Florida Georgia Line</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>twenty one pilots</t>
+  </si>
+  <si>
+    <t>Jumpsuit</t>
+  </si>
+  <si>
+    <t>Eric Church</t>
+  </si>
+  <si>
+    <t>Desperate Man</t>
+  </si>
+  <si>
+    <t>Ariana Grande</t>
+  </si>
+  <si>
+    <t>no tears left to cry</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>Whatever It Takes</t>
+  </si>
+  <si>
+    <t>5 Seconds of Summer</t>
+  </si>
+  <si>
+    <t>Youngblood</t>
+  </si>
+  <si>
+    <t>Dan + Shay</t>
+  </si>
+  <si>
+    <t>Tequila</t>
+  </si>
+  <si>
+    <t>Brett Young</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Delicate</t>
+  </si>
+  <si>
+    <t>Jason Aldean</t>
+  </si>
+  <si>
+    <t>Drowns the Whiskey (feat. Miranda Lambert)</t>
+  </si>
+  <si>
+    <t>Childish Gambino</t>
+  </si>
+  <si>
+    <t>Summertime Magic</t>
+  </si>
+  <si>
+    <t>Bebe Rexha &amp; Florida Georgia Line</t>
+  </si>
+  <si>
+    <t>Meant to Be</t>
+  </si>
+  <si>
+    <t>benny blanco, Halsey &amp; Khalid</t>
+  </si>
+  <si>
+    <t>Eastside</t>
+  </si>
+  <si>
+    <t>Zedd, Maren Morris &amp; Grey</t>
+  </si>
+  <si>
+    <t>The Middle</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Back to You</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Cardi B, Bad Bunny &amp; J Balvin</t>
+  </si>
+  <si>
+    <t>I Like It</t>
+  </si>
+  <si>
+    <t>Khalid &amp; Normani</t>
+  </si>
+  <si>
+    <t>Love Lies</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Girls Like You (feat. Cardi B)</t>
+  </si>
+  <si>
+    <t>Shawn Mendes</t>
+  </si>
+  <si>
+    <t>In My Blood</t>
+  </si>
+  <si>
+    <t>Calvin Harris, Dua Lipa</t>
+  </si>
+  <si>
+    <t>One Kiss</t>
+  </si>
+  <si>
+    <t>Foster the People</t>
+  </si>
+  <si>
+    <t>Sit Next to Me</t>
+  </si>
+  <si>
+    <t>Ella Mai</t>
+  </si>
+  <si>
+    <t>Boo'd Up</t>
+  </si>
+  <si>
+    <t>Camila Cabello</t>
+  </si>
+  <si>
+    <t>Havana (feat. Young Thug)</t>
+  </si>
+  <si>
+    <t>Kenny Chesney</t>
+  </si>
+  <si>
+    <t>Get Along</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Thomas Rhett</t>
+  </si>
+  <si>
+    <t>Life Changes</t>
+  </si>
+  <si>
+    <t>Morgan Wallen</t>
+  </si>
+  <si>
+    <t>Up Down (feat. Florida Georgia Line)</t>
+  </si>
+  <si>
+    <t>Cole Swindell</t>
+  </si>
+  <si>
+    <t>Love You Too Late</t>
   </si>
   <si>
     <t>Luke Combs</t>
   </si>
   <si>
-    <t>Must've Never Met You</t>
+    <t>Beautiful Crazy</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Luke Bryan</t>
+  </si>
+  <si>
+    <t>Sunrise, Sunburn, Sunset</t>
+  </si>
+  <si>
+    <t>Weezer</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Nico And The Niners</t>
+  </si>
+  <si>
+    <t>Feels Like Summer</t>
+  </si>
+  <si>
+    <t>Kane Brown</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>Panic! At the Disco</t>
+  </si>
+  <si>
+    <t>High Hopes</t>
+  </si>
+  <si>
+    <t>Bad Wolves</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>You Make It Easy</t>
+  </si>
+  <si>
+    <t>Believer</t>
+  </si>
+  <si>
+    <t>Backstreet Boys</t>
+  </si>
+  <si>
+    <t>Don't Go Breaking My Heart</t>
+  </si>
+  <si>
+    <t>Toto</t>
+  </si>
+  <si>
+    <t>Never Be the Same</t>
+  </si>
+  <si>
+    <t>Lauv</t>
+  </si>
+  <si>
+    <t>I Like Me Better</t>
+  </si>
+  <si>
+    <t>David Lee Murphy &amp; Kenny Chesney</t>
+  </si>
+  <si>
+    <t>Everything's Gonna Be Alright</t>
+  </si>
+  <si>
+    <t>XXXTENTACION</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t>Sugarland</t>
+  </si>
+  <si>
+    <t>Babe (feat. Taylor Swift)</t>
+  </si>
+  <si>
+    <t>Keala Settle &amp; The Greatest Showman Ensemble</t>
+  </si>
+  <si>
+    <t>This Is Me</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Lose It</t>
+  </si>
+  <si>
+    <t>Jason Mraz</t>
+  </si>
+  <si>
+    <t>Have It All</t>
+  </si>
+  <si>
+    <t>Chris Stapleton</t>
+  </si>
+  <si>
+    <t>Tennessee Whiskey</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Hotel Key</t>
+  </si>
+  <si>
+    <t>Kygo &amp; Imagine Dragons</t>
+  </si>
+  <si>
+    <t>Born to Be Yours</t>
+  </si>
+  <si>
+    <t>for KING &amp; COUNTRY</t>
+  </si>
+  <si>
+    <t>joy.</t>
+  </si>
+  <si>
+    <t>Clean Bandit</t>
+  </si>
+  <si>
+    <t>Solo (feat. Demi Lovato)</t>
+  </si>
+  <si>
+    <t>Post Malone</t>
+  </si>
+  <si>
+    <t>Better Now</t>
+  </si>
+  <si>
+    <t>Keith Urban</t>
+  </si>
+  <si>
+    <t>Coming Home (feat. Julia Michaels)</t>
+  </si>
+  <si>
+    <t>Talk You Out of It</t>
+  </si>
+  <si>
+    <t>Better Boat (feat. Mindy Smith)</t>
+  </si>
+  <si>
+    <t>Chris Lane</t>
+  </si>
+  <si>
+    <t>Take Back Home Girl (feat. Tori Kelly)</t>
+  </si>
+  <si>
+    <t>Don't Matter To Me (feat. Michael Jackson)</t>
+  </si>
+  <si>
+    <t>Mark Ronson</t>
+  </si>
+  <si>
+    <t>Uptown Funk (feat. Bruno Mars)</t>
+  </si>
+  <si>
+    <t>Say Amen (Saturday Night)</t>
+  </si>
+  <si>
+    <t>One Number Away</t>
+  </si>
+  <si>
+    <t>MercyMe</t>
+  </si>
+  <si>
+    <t>I Can Only Imagine</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>Done For Me (feat. Kehlani)</t>
+  </si>
+  <si>
+    <t>Chris Janson</t>
+  </si>
+  <si>
+    <t>Drunk Girl</t>
+  </si>
+  <si>
+    <t>Francesca Battistelli</t>
+  </si>
+  <si>
+    <t>The Breakup Song</t>
+  </si>
+  <si>
+    <t>Portugal. The Man</t>
+  </si>
+  <si>
+    <t>Feel It Still</t>
+  </si>
+  <si>
+    <t>Speechless</t>
+  </si>
+  <si>
+    <t>lovelytheband</t>
+  </si>
+  <si>
+    <t>Broken</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>CAN'T STOP THE FEELING!</t>
+  </si>
+  <si>
+    <t>Jake Owen</t>
+  </si>
+  <si>
+    <t>I Was Jack (You Were Diane)</t>
+  </si>
+  <si>
+    <t>Lord Huron</t>
+  </si>
+  <si>
+    <t>The Night We Met</t>
+  </si>
+  <si>
+    <t>Cory Asbury</t>
+  </si>
+  <si>
+    <t>Reckless Love</t>
+  </si>
+  <si>
+    <t>Dennis Lloyd</t>
+  </si>
+  <si>
+    <t>Nevermind</t>
+  </si>
+  <si>
+    <t>Morgan Evans</t>
+  </si>
+  <si>
+    <t>Kiss Somebody</t>
+  </si>
+  <si>
+    <t>Sam Hunt</t>
+  </si>
+  <si>
+    <t>Downtown's Dead</t>
+  </si>
+  <si>
+    <t>Mitchell Tenpenny</t>
+  </si>
+  <si>
+    <t>Drunk Me</t>
+  </si>
+  <si>
+    <t>The Killers</t>
+  </si>
+  <si>
+    <t>Mr. Brightside</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>Alone (feat. Big Sean &amp; Stefflon Don)</t>
+  </si>
+  <si>
+    <t>Cam</t>
+  </si>
+  <si>
+    <t>Road to Happiness</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Cry Pretty</t>
+  </si>
+  <si>
+    <t>Break Up in the End</t>
+  </si>
+  <si>
+    <t>What Ifs (feat. Lauren Alaina)</t>
+  </si>
+  <si>
+    <t>Billie Eilish &amp; Khalid</t>
+  </si>
+  <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Don't Stop Believin'</t>
+  </si>
+  <si>
+    <t>Grace Got You</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>24K Magic</t>
+  </si>
+  <si>
+    <t>Radioactive</t>
+  </si>
+  <si>
+    <t>Broken Halos</t>
+  </si>
+  <si>
+    <t>Body Like a Back Road</t>
+  </si>
+  <si>
+    <t>Kygo &amp; Miguel</t>
+  </si>
+  <si>
+    <t>Remind Me to Forget</t>
   </si>
   <si>
     <t>Meghan Trainor</t>
   </si>
   <si>
-    <t>Me Too</t>
-  </si>
-  <si>
-    <t>Miley Cyrus</t>
-  </si>
-  <si>
-    <t>Party In the U.S.A.</t>
-  </si>
-  <si>
-    <t>Zac Brown Band</t>
-  </si>
-  <si>
-    <t>Chicken Fried</t>
-  </si>
-  <si>
-    <t>Hillsong Worship</t>
-  </si>
-  <si>
-    <t>Who You Say I Am (Live)</t>
-  </si>
-  <si>
-    <t>MØ &amp; Diplo</t>
-  </si>
-  <si>
-    <t>Sun in Our Eyes</t>
-  </si>
-  <si>
-    <t>Darius Rucker</t>
-  </si>
-  <si>
-    <t>Wagon Wheel</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>The Sound of Silence</t>
-  </si>
-  <si>
-    <t>Ziv Zaifman, Hugh Jackman &amp; Michelle Williams</t>
-  </si>
-  <si>
-    <t>A Million Dreams</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Say Something (feat. Chris Stapleton)</t>
-  </si>
-  <si>
-    <t>LET YOU BE RIGHT</t>
-  </si>
-  <si>
-    <t>John Mayer</t>
-  </si>
-  <si>
-    <t>New Light</t>
-  </si>
-  <si>
-    <t>ABBA</t>
-  </si>
-  <si>
-    <t>Dancing Queen</t>
-  </si>
-  <si>
-    <t>Backstreet Boys</t>
-  </si>
-  <si>
-    <t>I Want It That Way</t>
-  </si>
-  <si>
-    <t>Demi Lovato</t>
-  </si>
-  <si>
-    <t>Warrior</t>
-  </si>
-  <si>
-    <t>Macklemore</t>
-  </si>
-  <si>
-    <t>Good Old Days (feat. Kesha)</t>
-  </si>
-  <si>
-    <t>Ed Sheeran</t>
-  </si>
-  <si>
-    <t>Thinking Out Loud</t>
-  </si>
-  <si>
-    <t>When It Rains It Pours</t>
-  </si>
-  <si>
-    <t>Pharrell Williams</t>
-  </si>
-  <si>
-    <t>Happy (From "Despicable Me 2")</t>
-  </si>
-  <si>
-    <t>Kelsea Ballerini</t>
-  </si>
-  <si>
-    <t>I Hate Love Songs</t>
-  </si>
-  <si>
-    <t>John Legend</t>
-  </si>
-  <si>
-    <t>All of Me</t>
-  </si>
-  <si>
-    <t>Liam Payne &amp; J Balvin</t>
-  </si>
-  <si>
-    <t>Familiar</t>
-  </si>
-  <si>
-    <t>Enrique Iglesias</t>
-  </si>
-  <si>
-    <t>MOVE TO MIAMI (feat. Pitbull)</t>
-  </si>
-  <si>
-    <t>The Black Eyed Peas</t>
-  </si>
-  <si>
-    <t>I Gotta Feeling</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>Rolling in the Deep</t>
-  </si>
-  <si>
-    <t>Halsey</t>
-  </si>
-  <si>
-    <t>Bad at Love</t>
-  </si>
-  <si>
-    <t>twenty one pilots</t>
-  </si>
-  <si>
-    <t>Stressed Out</t>
-  </si>
-  <si>
-    <t>AJR</t>
-  </si>
-  <si>
-    <t>Sober Up (feat. Rivers Cuomo)</t>
-  </si>
-  <si>
-    <t>Bethesda Game Studios, Copilot Music + Sound &amp; Spank</t>
-  </si>
-  <si>
-    <t>Fallout 76: Take Me Home, Country Roads (Original Trailer Soundtrack)</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>Bohemian Rhapsody</t>
-  </si>
-  <si>
-    <t>Dylan Scott</t>
-  </si>
-  <si>
-    <t>Hooked</t>
-  </si>
-  <si>
-    <t>Marshmello</t>
-  </si>
-  <si>
-    <t>Silence (feat. Khalid)</t>
-  </si>
-  <si>
-    <t>NEEDTOBREATHE</t>
-  </si>
-  <si>
-    <t>Forever On Your Side (with JOHNNYSWIM)</t>
-  </si>
-  <si>
-    <t>Carly Pearce</t>
-  </si>
-  <si>
-    <t>Hide the Wine</t>
-  </si>
-  <si>
-    <t>Dierks Bentley</t>
-  </si>
-  <si>
-    <t>Woman, Amen</t>
+    <t>NO EXCUSES</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez</t>
+  </si>
+  <si>
+    <t>Dinero (feat. DJ Khaled &amp; Cardi B)</t>
+  </si>
+  <si>
+    <t>John Denver</t>
+  </si>
+  <si>
+    <t>Take Me Home, Country Roads</t>
   </si>
 </sst>
 </file>
@@ -713,31 +1016,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -769,119 +1072,119 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -889,26 +1192,514 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
